--- a/Code/Results/Cases/Case_4_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028941201110916</v>
+        <v>1.055906665083465</v>
       </c>
       <c r="D2">
-        <v>1.045912350318101</v>
+        <v>1.06220660608802</v>
       </c>
       <c r="E2">
-        <v>1.046410251191211</v>
+        <v>1.069091184673903</v>
       </c>
       <c r="F2">
-        <v>1.05270886782986</v>
+        <v>1.075434052130314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055820484949166</v>
+        <v>1.048407290474736</v>
       </c>
       <c r="J2">
-        <v>1.050289447927511</v>
+        <v>1.060911076716469</v>
       </c>
       <c r="K2">
-        <v>1.056767068639411</v>
+        <v>1.064928581078178</v>
       </c>
       <c r="L2">
-        <v>1.057258775138737</v>
+        <v>1.071794619448596</v>
       </c>
       <c r="M2">
-        <v>1.063479660073396</v>
+        <v>1.078120632600537</v>
       </c>
       <c r="N2">
-        <v>1.051780979413452</v>
+        <v>1.062417692133608</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033447593503736</v>
+        <v>1.056869215008701</v>
       </c>
       <c r="D3">
-        <v>1.049442966205241</v>
+        <v>1.062984887817917</v>
       </c>
       <c r="E3">
-        <v>1.050494245053337</v>
+        <v>1.070016515963961</v>
       </c>
       <c r="F3">
-        <v>1.05688019165503</v>
+        <v>1.076380801812208</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057233308927227</v>
+        <v>1.048659195798006</v>
       </c>
       <c r="J3">
-        <v>1.053066189658098</v>
+        <v>1.061525427898315</v>
       </c>
       <c r="K3">
-        <v>1.059480010880476</v>
+        <v>1.065521725564153</v>
       </c>
       <c r="L3">
-        <v>1.060519371921546</v>
+        <v>1.072535783175583</v>
       </c>
       <c r="M3">
-        <v>1.066833551339404</v>
+        <v>1.078884378970342</v>
       </c>
       <c r="N3">
-        <v>1.054561664435793</v>
+        <v>1.0630329157646</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03630694108706</v>
+        <v>1.057492631994108</v>
       </c>
       <c r="D4">
-        <v>1.051685984524422</v>
+        <v>1.063488984249987</v>
       </c>
       <c r="E4">
-        <v>1.05309075559804</v>
+        <v>1.070616182178601</v>
       </c>
       <c r="F4">
-        <v>1.059532364548018</v>
+        <v>1.076994362476733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058121450380093</v>
+        <v>1.048821296296379</v>
       </c>
       <c r="J4">
-        <v>1.05482539959356</v>
+        <v>1.061922889447323</v>
       </c>
       <c r="K4">
-        <v>1.061198195447995</v>
+        <v>1.065905363666561</v>
       </c>
       <c r="L4">
-        <v>1.062588017694673</v>
+        <v>1.073015646831872</v>
       </c>
       <c r="M4">
-        <v>1.068961698855998</v>
+        <v>1.07937889358811</v>
       </c>
       <c r="N4">
-        <v>1.056323372651147</v>
+        <v>1.063430941754596</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037495933174786</v>
+        <v>1.05775485501329</v>
       </c>
       <c r="D5">
-        <v>1.052619321049982</v>
+        <v>1.06370102382012</v>
       </c>
       <c r="E5">
-        <v>1.054171662484963</v>
+        <v>1.070868499557184</v>
       </c>
       <c r="F5">
-        <v>1.060636476012986</v>
+        <v>1.077252529501843</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058488737616408</v>
+        <v>1.048889227566463</v>
       </c>
       <c r="J5">
-        <v>1.055556257219064</v>
+        <v>1.062089965824141</v>
       </c>
       <c r="K5">
-        <v>1.061911857406614</v>
+        <v>1.06606660437017</v>
       </c>
       <c r="L5">
-        <v>1.06344812620975</v>
+        <v>1.073217447695625</v>
       </c>
       <c r="M5">
-        <v>1.069846620813251</v>
+        <v>1.079586862879269</v>
       </c>
       <c r="N5">
-        <v>1.057055268178311</v>
+        <v>1.063598255399034</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03769481655023</v>
+        <v>1.057798891505615</v>
       </c>
       <c r="D6">
-        <v>1.0527754765844</v>
+        <v>1.063736633044203</v>
       </c>
       <c r="E6">
-        <v>1.054352536535217</v>
+        <v>1.070910877482269</v>
       </c>
       <c r="F6">
-        <v>1.060821234916464</v>
+        <v>1.077295890101033</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05855005399012</v>
+        <v>1.048900620856706</v>
       </c>
       <c r="J6">
-        <v>1.055678468037424</v>
+        <v>1.06211801769006</v>
       </c>
       <c r="K6">
-        <v>1.062031183725006</v>
+        <v>1.066093674974799</v>
       </c>
       <c r="L6">
-        <v>1.063591990877685</v>
+        <v>1.073251334796844</v>
       </c>
       <c r="M6">
-        <v>1.069994640152101</v>
+        <v>1.079621786222491</v>
       </c>
       <c r="N6">
-        <v>1.05717765255005</v>
+        <v>1.063626347101819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03632287923713</v>
+        <v>1.057496135287891</v>
       </c>
       <c r="D7">
-        <v>1.051698493240833</v>
+        <v>1.063491817073358</v>
       </c>
       <c r="E7">
-        <v>1.053105240158799</v>
+        <v>1.070619552802028</v>
       </c>
       <c r="F7">
-        <v>1.059547159930496</v>
+        <v>1.076997811230384</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058126381816898</v>
+        <v>1.048822204845864</v>
       </c>
       <c r="J7">
-        <v>1.054835199241074</v>
+        <v>1.061925121995912</v>
       </c>
       <c r="K7">
-        <v>1.061207765137238</v>
+        <v>1.065907518334124</v>
       </c>
       <c r="L7">
-        <v>1.062599547634315</v>
+        <v>1.073018343046246</v>
       </c>
       <c r="M7">
-        <v>1.068973561136111</v>
+        <v>1.07938167218937</v>
       </c>
       <c r="N7">
-        <v>1.056333186215285</v>
+        <v>1.06343317747366</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030476165029654</v>
+        <v>1.056231842051894</v>
       </c>
       <c r="D8">
-        <v>1.047114329920643</v>
+        <v>1.062469526513669</v>
       </c>
       <c r="E8">
-        <v>1.047800232126119</v>
+        <v>1.069403714447809</v>
       </c>
       <c r="F8">
-        <v>1.054128541593675</v>
+        <v>1.075753813015821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056303441316875</v>
+        <v>1.048492608898031</v>
       </c>
       <c r="J8">
-        <v>1.051235797790946</v>
+        <v>1.061118712404145</v>
       </c>
       <c r="K8">
-        <v>1.057691797624436</v>
+        <v>1.065129070810348</v>
       </c>
       <c r="L8">
-        <v>1.058369425435142</v>
+        <v>1.072045040303831</v>
       </c>
       <c r="M8">
-        <v>1.064622022828003</v>
+        <v>1.078378677368114</v>
       </c>
       <c r="N8">
-        <v>1.052728673202241</v>
+        <v>1.062625622687777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01971779276429</v>
+        <v>1.054008504217066</v>
       </c>
       <c r="D9">
-        <v>1.038703585668735</v>
+        <v>1.060671978749216</v>
       </c>
       <c r="E9">
-        <v>1.038081402651781</v>
+        <v>1.067268319356703</v>
       </c>
       <c r="F9">
-        <v>1.044202724290728</v>
+        <v>1.073569068719205</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052884601065233</v>
+        <v>1.047904956487407</v>
       </c>
       <c r="J9">
-        <v>1.04459297604482</v>
+        <v>1.059697262146265</v>
       </c>
       <c r="K9">
-        <v>1.051198452174049</v>
+        <v>1.063756119502309</v>
       </c>
       <c r="L9">
-        <v>1.050585437543933</v>
+        <v>1.070332159802824</v>
       </c>
       <c r="M9">
-        <v>1.056617158805115</v>
+        <v>1.076613772536863</v>
       </c>
       <c r="N9">
-        <v>1.046076417887293</v>
+        <v>1.061202153807487</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.012206029129159</v>
+        <v>1.052529369268075</v>
       </c>
       <c r="D10">
-        <v>1.032850682653949</v>
+        <v>1.059476287282398</v>
       </c>
       <c r="E10">
-        <v>1.031326855232946</v>
+        <v>1.065849554084721</v>
       </c>
       <c r="F10">
-        <v>1.03730515922221</v>
+        <v>1.072117589015011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050455977420954</v>
+        <v>1.047508606095251</v>
       </c>
       <c r="J10">
-        <v>1.039943598124441</v>
+        <v>1.058749380195885</v>
       </c>
       <c r="K10">
-        <v>1.046651101720235</v>
+        <v>1.062840052721853</v>
       </c>
       <c r="L10">
-        <v>1.045152628022799</v>
+        <v>1.069191787441591</v>
       </c>
       <c r="M10">
-        <v>1.05103201320857</v>
+        <v>1.075438919860004</v>
       </c>
       <c r="N10">
-        <v>1.041420437316976</v>
+        <v>1.060252925756014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00886482801762</v>
+        <v>1.051889632558652</v>
       </c>
       <c r="D11">
-        <v>1.030252748790722</v>
+        <v>1.058959190379322</v>
       </c>
       <c r="E11">
-        <v>1.02833048580152</v>
+        <v>1.065236375590872</v>
       </c>
       <c r="F11">
-        <v>1.03424556032691</v>
+        <v>1.071490289144945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049366388881386</v>
+        <v>1.0473359017399</v>
       </c>
       <c r="J11">
-        <v>1.037873413983624</v>
+        <v>1.058338889619042</v>
       </c>
       <c r="K11">
-        <v>1.044625837429292</v>
+        <v>1.062443216336291</v>
       </c>
       <c r="L11">
-        <v>1.042737202158393</v>
+        <v>1.068698374601739</v>
       </c>
       <c r="M11">
-        <v>1.048549316195855</v>
+        <v>1.074930625333327</v>
       </c>
       <c r="N11">
-        <v>1.039347313277225</v>
+        <v>1.059841852235469</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007609718056971</v>
+        <v>1.051652117734044</v>
       </c>
       <c r="D12">
-        <v>1.029277724190337</v>
+        <v>1.058767215839881</v>
       </c>
       <c r="E12">
-        <v>1.027206168579567</v>
+        <v>1.065008788817869</v>
       </c>
       <c r="F12">
-        <v>1.033097551371527</v>
+        <v>1.071257463738909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048955728935988</v>
+        <v>1.047271589591383</v>
       </c>
       <c r="J12">
-        <v>1.037095476495851</v>
+        <v>1.058186408325289</v>
       </c>
       <c r="K12">
-        <v>1.043864712945447</v>
+        <v>1.062295788540238</v>
       </c>
       <c r="L12">
-        <v>1.041830065676359</v>
+        <v>1.06851515666548</v>
       </c>
       <c r="M12">
-        <v>1.047616986396313</v>
+        <v>1.074741887015865</v>
       </c>
       <c r="N12">
-        <v>1.038568271028989</v>
+        <v>1.059689154400788</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007879591047255</v>
+        <v>1.051703060392761</v>
       </c>
       <c r="D13">
-        <v>1.029487332541906</v>
+        <v>1.058808390562088</v>
       </c>
       <c r="E13">
-        <v>1.027447860883922</v>
+        <v>1.065057599012081</v>
       </c>
       <c r="F13">
-        <v>1.033344335097558</v>
+        <v>1.07130739733506</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049044089509417</v>
+        <v>1.047285392091107</v>
       </c>
       <c r="J13">
-        <v>1.037262760085898</v>
+        <v>1.058219116374202</v>
       </c>
       <c r="K13">
-        <v>1.044028384029855</v>
+        <v>1.062327413423003</v>
       </c>
       <c r="L13">
-        <v>1.042025107338101</v>
+        <v>1.06855445491253</v>
       </c>
       <c r="M13">
-        <v>1.047817441577487</v>
+        <v>1.074782369070463</v>
       </c>
       <c r="N13">
-        <v>1.038735792180921</v>
+        <v>1.059721908898883</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008761371053608</v>
+        <v>1.051869997221598</v>
       </c>
       <c r="D14">
-        <v>1.03017236059393</v>
+        <v>1.058943319691655</v>
       </c>
       <c r="E14">
-        <v>1.028237784016665</v>
+        <v>1.065217559619245</v>
       </c>
       <c r="F14">
-        <v>1.034150904427296</v>
+        <v>1.071471040009904</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049332566139287</v>
+        <v>1.047330588980739</v>
       </c>
       <c r="J14">
-        <v>1.037809295119469</v>
+        <v>1.058326285601504</v>
       </c>
       <c r="K14">
-        <v>1.044563105627453</v>
+        <v>1.062431030415002</v>
       </c>
       <c r="L14">
-        <v>1.042662423613193</v>
+        <v>1.068683228569449</v>
       </c>
       <c r="M14">
-        <v>1.04847245941687</v>
+        <v>1.074915022834581</v>
       </c>
       <c r="N14">
-        <v>1.039283103356929</v>
+        <v>1.05982923031878</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.009302781689755</v>
+        <v>1.05197286736356</v>
       </c>
       <c r="D15">
-        <v>1.030593084104238</v>
+        <v>1.059026467043121</v>
       </c>
       <c r="E15">
-        <v>1.028722962289034</v>
+        <v>1.065316139859974</v>
       </c>
       <c r="F15">
-        <v>1.034646311435074</v>
+        <v>1.071571889779614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049509512023191</v>
+        <v>1.047358414816446</v>
       </c>
       <c r="J15">
-        <v>1.038144830580406</v>
+        <v>1.05839231522355</v>
       </c>
       <c r="K15">
-        <v>1.04489137988358</v>
+        <v>1.062494868967274</v>
       </c>
       <c r="L15">
-        <v>1.043053763281075</v>
+        <v>1.06876257792951</v>
       </c>
       <c r="M15">
-        <v>1.04887467804568</v>
+        <v>1.074996763830869</v>
       </c>
       <c r="N15">
-        <v>1.039619115316706</v>
+        <v>1.059895353710463</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.012425846284761</v>
+        <v>1.052571842124351</v>
       </c>
       <c r="D16">
-        <v>1.033021718730611</v>
+        <v>1.059510619010404</v>
       </c>
       <c r="E16">
-        <v>1.031524157587349</v>
+        <v>1.065890273194184</v>
       </c>
       <c r="F16">
-        <v>1.037506629646441</v>
+        <v>1.072159246247782</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050527470172259</v>
+        <v>1.047520045160215</v>
       </c>
       <c r="J16">
-        <v>1.040079753907122</v>
+        <v>1.05877662209756</v>
       </c>
       <c r="K16">
-        <v>1.046784293310013</v>
+        <v>1.062866385873991</v>
       </c>
       <c r="L16">
-        <v>1.045311564871243</v>
+        <v>1.069224541639397</v>
       </c>
       <c r="M16">
-        <v>1.051195386275696</v>
+        <v>1.075472662732886</v>
       </c>
       <c r="N16">
-        <v>1.041556786456485</v>
+        <v>1.060280206344315</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014360649820054</v>
+        <v>1.052947761531088</v>
       </c>
       <c r="D17">
-        <v>1.034527781513914</v>
+        <v>1.059814488463453</v>
       </c>
       <c r="E17">
-        <v>1.033261708729938</v>
+        <v>1.066250722346723</v>
       </c>
       <c r="F17">
-        <v>1.039280911666257</v>
+        <v>1.072528001778868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051155681211875</v>
+        <v>1.047621142269153</v>
       </c>
       <c r="J17">
-        <v>1.041277939482433</v>
+        <v>1.059017674517692</v>
       </c>
       <c r="K17">
-        <v>1.047956336838267</v>
+        <v>1.063099382861695</v>
       </c>
       <c r="L17">
-        <v>1.046710634534133</v>
+        <v>1.069514420678104</v>
       </c>
       <c r="M17">
-        <v>1.052633558911948</v>
+        <v>1.075771295974728</v>
       </c>
       <c r="N17">
-        <v>1.042756673592747</v>
+        <v>1.060521601086533</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015480695598217</v>
+        <v>1.053167100151665</v>
       </c>
       <c r="D18">
-        <v>1.035400141339627</v>
+        <v>1.059991792557363</v>
       </c>
       <c r="E18">
-        <v>1.034268324707274</v>
+        <v>1.066461077710599</v>
       </c>
       <c r="F18">
-        <v>1.040308827228541</v>
+        <v>1.072743206373978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051518458203636</v>
+        <v>1.047680006069424</v>
       </c>
       <c r="J18">
-        <v>1.041971353564748</v>
+        <v>1.059158271291841</v>
       </c>
       <c r="K18">
-        <v>1.048634573057667</v>
+        <v>1.063235269265035</v>
       </c>
       <c r="L18">
-        <v>1.047520645053844</v>
+        <v>1.069683538414769</v>
       </c>
       <c r="M18">
-        <v>1.053466251919811</v>
+        <v>1.075945524567797</v>
       </c>
       <c r="N18">
-        <v>1.043451072402594</v>
+        <v>1.060662397524227</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.015861183294994</v>
+        <v>1.053241901000201</v>
       </c>
       <c r="D19">
-        <v>1.035696572795228</v>
+        <v>1.060052259178884</v>
       </c>
       <c r="E19">
-        <v>1.034610406602485</v>
+        <v>1.066532822321278</v>
       </c>
       <c r="F19">
-        <v>1.040658150835597</v>
+        <v>1.072816605168867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051641543846169</v>
+        <v>1.047700059375335</v>
       </c>
       <c r="J19">
-        <v>1.042206874783865</v>
+        <v>1.059206210278597</v>
       </c>
       <c r="K19">
-        <v>1.04886493047269</v>
+        <v>1.063281600138572</v>
       </c>
       <c r="L19">
-        <v>1.047795826667117</v>
+        <v>1.069741209299403</v>
       </c>
       <c r="M19">
-        <v>1.053749146640335</v>
+        <v>1.076004938914285</v>
       </c>
       <c r="N19">
-        <v>1.043686928088858</v>
+        <v>1.060710404589843</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014153947267116</v>
+        <v>1.052907421566117</v>
       </c>
       <c r="D20">
-        <v>1.034366829687747</v>
+        <v>1.05978187970557</v>
       </c>
       <c r="E20">
-        <v>1.033076000377929</v>
+        <v>1.066212038024408</v>
       </c>
       <c r="F20">
-        <v>1.039091275428976</v>
+        <v>1.072488425819734</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051088659060717</v>
+        <v>1.047610306304511</v>
       </c>
       <c r="J20">
-        <v>1.041149953960133</v>
+        <v>1.058991812387391</v>
       </c>
       <c r="K20">
-        <v>1.04783114871898</v>
+        <v>1.06307438622047</v>
       </c>
       <c r="L20">
-        <v>1.046561156019764</v>
+        <v>1.069483315648687</v>
       </c>
       <c r="M20">
-        <v>1.052479898076475</v>
+        <v>1.075739251217949</v>
       </c>
       <c r="N20">
-        <v>1.042628506316325</v>
+        <v>1.060495702229039</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008502102517465</v>
+        <v>1.051820835390582</v>
       </c>
       <c r="D21">
-        <v>1.029970917994144</v>
+        <v>1.058903583702635</v>
       </c>
       <c r="E21">
-        <v>1.028005488968774</v>
+        <v>1.065170450365362</v>
       </c>
       <c r="F21">
-        <v>1.033913713244375</v>
+        <v>1.071422846294315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049247782831193</v>
+        <v>1.047317284092899</v>
       </c>
       <c r="J21">
-        <v>1.037648605545481</v>
+        <v>1.058294727116019</v>
       </c>
       <c r="K21">
-        <v>1.044405891150701</v>
+        <v>1.062400518478406</v>
       </c>
       <c r="L21">
-        <v>1.042475028232953</v>
+        <v>1.06864530633938</v>
       </c>
       <c r="M21">
-        <v>1.048279857125302</v>
+        <v>1.074875957806626</v>
       </c>
       <c r="N21">
-        <v>1.039122185585314</v>
+        <v>1.059797627016626</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004866936415996</v>
+        <v>1.051138303263864</v>
       </c>
       <c r="D22">
-        <v>1.027148704351896</v>
+        <v>1.05835193337984</v>
       </c>
       <c r="E22">
-        <v>1.024751580054152</v>
+        <v>1.064516576134291</v>
       </c>
       <c r="F22">
-        <v>1.030591302997868</v>
+        <v>1.070753926061116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048055867380723</v>
+        <v>1.04713211201168</v>
       </c>
       <c r="J22">
-        <v>1.035394991024616</v>
+        <v>1.057856402954333</v>
       </c>
       <c r="K22">
-        <v>1.042200866282448</v>
+        <v>1.061976686379125</v>
       </c>
       <c r="L22">
-        <v>1.039848149208676</v>
+        <v>1.068118750199124</v>
       </c>
       <c r="M22">
-        <v>1.045580160631996</v>
+        <v>1.074333547039346</v>
       </c>
       <c r="N22">
-        <v>1.036865370673337</v>
+        <v>1.059358680384354</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006802002605117</v>
+        <v>1.051500064750568</v>
       </c>
       <c r="D23">
-        <v>1.028650511791442</v>
+        <v>1.058644319258562</v>
       </c>
       <c r="E23">
-        <v>1.026482984930471</v>
+        <v>1.064863110751138</v>
       </c>
       <c r="F23">
-        <v>1.032359138386848</v>
+        <v>1.071108433174037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048691074678182</v>
+        <v>1.047230363921155</v>
       </c>
       <c r="J23">
-        <v>1.036594768061792</v>
+        <v>1.058088770275954</v>
       </c>
       <c r="K23">
-        <v>1.043374808278505</v>
+        <v>1.062201381188551</v>
       </c>
       <c r="L23">
-        <v>1.041246351009989</v>
+        <v>1.068397855590148</v>
       </c>
       <c r="M23">
-        <v>1.047017080906266</v>
+        <v>1.07462105322351</v>
       </c>
       <c r="N23">
-        <v>1.038066851531521</v>
+        <v>1.059591377694224</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014247373443958</v>
+        <v>1.052925649239964</v>
       </c>
       <c r="D24">
-        <v>1.034439575709332</v>
+        <v>1.059796614007631</v>
       </c>
       <c r="E24">
-        <v>1.033159935171797</v>
+        <v>1.066229517460216</v>
       </c>
       <c r="F24">
-        <v>1.039176985450439</v>
+        <v>1.072506308134678</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051118954742006</v>
+        <v>1.047615202933227</v>
       </c>
       <c r="J24">
-        <v>1.041207801973739</v>
+        <v>1.059003498386456</v>
       </c>
       <c r="K24">
-        <v>1.047887732490386</v>
+        <v>1.063085681178663</v>
       </c>
       <c r="L24">
-        <v>1.046628717566747</v>
+        <v>1.069497370560835</v>
       </c>
       <c r="M24">
-        <v>1.052549349821875</v>
+        <v>1.075753730737996</v>
       </c>
       <c r="N24">
-        <v>1.042686436480746</v>
+        <v>1.060507404823564</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022556376490831</v>
+        <v>1.054582750007111</v>
       </c>
       <c r="D25">
-        <v>1.040919588620164</v>
+        <v>1.061136222481465</v>
       </c>
       <c r="E25">
-        <v>1.040640473566955</v>
+        <v>1.067819524441912</v>
       </c>
       <c r="F25">
-        <v>1.046816157184729</v>
+        <v>1.074132999298033</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05379397570107</v>
+        <v>1.048057688680525</v>
       </c>
       <c r="J25">
-        <v>1.046347764373923</v>
+        <v>1.060064789045296</v>
       </c>
       <c r="K25">
-        <v>1.052914234727369</v>
+        <v>1.064111199669926</v>
       </c>
       <c r="L25">
-        <v>1.052639034185184</v>
+        <v>1.070774712515978</v>
       </c>
       <c r="M25">
-        <v>1.058728720734879</v>
+        <v>1.077069739297706</v>
       </c>
       <c r="N25">
-        <v>1.047833698217099</v>
+        <v>1.061570202636871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055906665083465</v>
+        <v>1.028941201110915</v>
       </c>
       <c r="D2">
-        <v>1.06220660608802</v>
+        <v>1.0459123503181</v>
       </c>
       <c r="E2">
-        <v>1.069091184673903</v>
+        <v>1.04641025119121</v>
       </c>
       <c r="F2">
-        <v>1.075434052130314</v>
+        <v>1.052708867829859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048407290474736</v>
+        <v>1.055820484949166</v>
       </c>
       <c r="J2">
-        <v>1.060911076716469</v>
+        <v>1.05028944792751</v>
       </c>
       <c r="K2">
-        <v>1.064928581078178</v>
+        <v>1.056767068639409</v>
       </c>
       <c r="L2">
-        <v>1.071794619448596</v>
+        <v>1.057258775138736</v>
       </c>
       <c r="M2">
-        <v>1.078120632600537</v>
+        <v>1.063479660073395</v>
       </c>
       <c r="N2">
-        <v>1.062417692133608</v>
+        <v>1.051780979413451</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056869215008701</v>
+        <v>1.033447593503736</v>
       </c>
       <c r="D3">
-        <v>1.062984887817917</v>
+        <v>1.049442966205241</v>
       </c>
       <c r="E3">
-        <v>1.070016515963961</v>
+        <v>1.050494245053337</v>
       </c>
       <c r="F3">
-        <v>1.076380801812208</v>
+        <v>1.05688019165503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048659195798006</v>
+        <v>1.057233308927227</v>
       </c>
       <c r="J3">
-        <v>1.061525427898315</v>
+        <v>1.053066189658098</v>
       </c>
       <c r="K3">
-        <v>1.065521725564153</v>
+        <v>1.059480010880475</v>
       </c>
       <c r="L3">
-        <v>1.072535783175583</v>
+        <v>1.060519371921545</v>
       </c>
       <c r="M3">
-        <v>1.078884378970342</v>
+        <v>1.066833551339405</v>
       </c>
       <c r="N3">
-        <v>1.0630329157646</v>
+        <v>1.054561664435793</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057492631994108</v>
+        <v>1.036306941087059</v>
       </c>
       <c r="D4">
-        <v>1.063488984249987</v>
+        <v>1.051685984524422</v>
       </c>
       <c r="E4">
-        <v>1.070616182178601</v>
+        <v>1.053090755598039</v>
       </c>
       <c r="F4">
-        <v>1.076994362476733</v>
+        <v>1.059532364548017</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048821296296379</v>
+        <v>1.058121450380093</v>
       </c>
       <c r="J4">
-        <v>1.061922889447323</v>
+        <v>1.054825399593559</v>
       </c>
       <c r="K4">
-        <v>1.065905363666561</v>
+        <v>1.061198195447994</v>
       </c>
       <c r="L4">
-        <v>1.073015646831872</v>
+        <v>1.062588017694672</v>
       </c>
       <c r="M4">
-        <v>1.07937889358811</v>
+        <v>1.068961698855997</v>
       </c>
       <c r="N4">
-        <v>1.063430941754596</v>
+        <v>1.056323372651147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05775485501329</v>
+        <v>1.037495933174786</v>
       </c>
       <c r="D5">
-        <v>1.06370102382012</v>
+        <v>1.052619321049983</v>
       </c>
       <c r="E5">
-        <v>1.070868499557184</v>
+        <v>1.054171662484963</v>
       </c>
       <c r="F5">
-        <v>1.077252529501843</v>
+        <v>1.060636476012986</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048889227566463</v>
+        <v>1.058488737616408</v>
       </c>
       <c r="J5">
-        <v>1.062089965824141</v>
+        <v>1.055556257219065</v>
       </c>
       <c r="K5">
-        <v>1.06606660437017</v>
+        <v>1.061911857406614</v>
       </c>
       <c r="L5">
-        <v>1.073217447695625</v>
+        <v>1.063448126209751</v>
       </c>
       <c r="M5">
-        <v>1.079586862879269</v>
+        <v>1.069846620813252</v>
       </c>
       <c r="N5">
-        <v>1.063598255399034</v>
+        <v>1.057055268178311</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057798891505615</v>
+        <v>1.03769481655023</v>
       </c>
       <c r="D6">
-        <v>1.063736633044203</v>
+        <v>1.0527754765844</v>
       </c>
       <c r="E6">
-        <v>1.070910877482269</v>
+        <v>1.054352536535217</v>
       </c>
       <c r="F6">
-        <v>1.077295890101033</v>
+        <v>1.060821234916464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048900620856706</v>
+        <v>1.05855005399012</v>
       </c>
       <c r="J6">
-        <v>1.06211801769006</v>
+        <v>1.055678468037424</v>
       </c>
       <c r="K6">
-        <v>1.066093674974799</v>
+        <v>1.062031183725006</v>
       </c>
       <c r="L6">
-        <v>1.073251334796844</v>
+        <v>1.063591990877685</v>
       </c>
       <c r="M6">
-        <v>1.079621786222491</v>
+        <v>1.069994640152101</v>
       </c>
       <c r="N6">
-        <v>1.063626347101819</v>
+        <v>1.05717765255005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057496135287891</v>
+        <v>1.036322879237129</v>
       </c>
       <c r="D7">
-        <v>1.063491817073358</v>
+        <v>1.051698493240832</v>
       </c>
       <c r="E7">
-        <v>1.070619552802028</v>
+        <v>1.053105240158798</v>
       </c>
       <c r="F7">
-        <v>1.076997811230384</v>
+        <v>1.059547159930495</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048822204845864</v>
+        <v>1.058126381816897</v>
       </c>
       <c r="J7">
-        <v>1.061925121995912</v>
+        <v>1.054835199241073</v>
       </c>
       <c r="K7">
-        <v>1.065907518334124</v>
+        <v>1.061207765137237</v>
       </c>
       <c r="L7">
-        <v>1.073018343046246</v>
+        <v>1.062599547634314</v>
       </c>
       <c r="M7">
-        <v>1.07938167218937</v>
+        <v>1.06897356113611</v>
       </c>
       <c r="N7">
-        <v>1.06343317747366</v>
+        <v>1.056333186215284</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.056231842051894</v>
+        <v>1.030476165029654</v>
       </c>
       <c r="D8">
-        <v>1.062469526513669</v>
+        <v>1.047114329920643</v>
       </c>
       <c r="E8">
-        <v>1.069403714447809</v>
+        <v>1.047800232126119</v>
       </c>
       <c r="F8">
-        <v>1.075753813015821</v>
+        <v>1.054128541593676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048492608898031</v>
+        <v>1.056303441316875</v>
       </c>
       <c r="J8">
-        <v>1.061118712404145</v>
+        <v>1.051235797790946</v>
       </c>
       <c r="K8">
-        <v>1.065129070810348</v>
+        <v>1.057691797624436</v>
       </c>
       <c r="L8">
-        <v>1.072045040303831</v>
+        <v>1.058369425435142</v>
       </c>
       <c r="M8">
-        <v>1.078378677368114</v>
+        <v>1.064622022828003</v>
       </c>
       <c r="N8">
-        <v>1.062625622687777</v>
+        <v>1.052728673202241</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054008504217066</v>
+        <v>1.01971779276429</v>
       </c>
       <c r="D9">
-        <v>1.060671978749216</v>
+        <v>1.038703585668734</v>
       </c>
       <c r="E9">
-        <v>1.067268319356703</v>
+        <v>1.03808140265178</v>
       </c>
       <c r="F9">
-        <v>1.073569068719205</v>
+        <v>1.044202724290726</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047904956487407</v>
+        <v>1.052884601065232</v>
       </c>
       <c r="J9">
-        <v>1.059697262146265</v>
+        <v>1.044592976044819</v>
       </c>
       <c r="K9">
-        <v>1.063756119502309</v>
+        <v>1.051198452174047</v>
       </c>
       <c r="L9">
-        <v>1.070332159802824</v>
+        <v>1.050585437543931</v>
       </c>
       <c r="M9">
-        <v>1.076613772536863</v>
+        <v>1.056617158805113</v>
       </c>
       <c r="N9">
-        <v>1.061202153807487</v>
+        <v>1.046076417887291</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052529369268075</v>
+        <v>1.012206029129159</v>
       </c>
       <c r="D10">
-        <v>1.059476287282398</v>
+        <v>1.032850682653949</v>
       </c>
       <c r="E10">
-        <v>1.065849554084721</v>
+        <v>1.031326855232945</v>
       </c>
       <c r="F10">
-        <v>1.072117589015011</v>
+        <v>1.03730515922221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047508606095251</v>
+        <v>1.050455977420954</v>
       </c>
       <c r="J10">
-        <v>1.058749380195885</v>
+        <v>1.039943598124441</v>
       </c>
       <c r="K10">
-        <v>1.062840052721853</v>
+        <v>1.046651101720235</v>
       </c>
       <c r="L10">
-        <v>1.069191787441591</v>
+        <v>1.045152628022799</v>
       </c>
       <c r="M10">
-        <v>1.075438919860004</v>
+        <v>1.05103201320857</v>
       </c>
       <c r="N10">
-        <v>1.060252925756014</v>
+        <v>1.041420437316976</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051889632558652</v>
+        <v>1.00886482801762</v>
       </c>
       <c r="D11">
-        <v>1.058959190379322</v>
+        <v>1.030252748790722</v>
       </c>
       <c r="E11">
-        <v>1.065236375590872</v>
+        <v>1.02833048580152</v>
       </c>
       <c r="F11">
-        <v>1.071490289144945</v>
+        <v>1.034245560326909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0473359017399</v>
+        <v>1.049366388881385</v>
       </c>
       <c r="J11">
-        <v>1.058338889619042</v>
+        <v>1.037873413983624</v>
       </c>
       <c r="K11">
-        <v>1.062443216336291</v>
+        <v>1.044625837429292</v>
       </c>
       <c r="L11">
-        <v>1.068698374601739</v>
+        <v>1.042737202158393</v>
       </c>
       <c r="M11">
-        <v>1.074930625333327</v>
+        <v>1.048549316195855</v>
       </c>
       <c r="N11">
-        <v>1.059841852235469</v>
+        <v>1.039347313277226</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051652117734044</v>
+        <v>1.007609718056971</v>
       </c>
       <c r="D12">
-        <v>1.058767215839881</v>
+        <v>1.029277724190336</v>
       </c>
       <c r="E12">
-        <v>1.065008788817869</v>
+        <v>1.027206168579567</v>
       </c>
       <c r="F12">
-        <v>1.071257463738909</v>
+        <v>1.033097551371526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047271589591383</v>
+        <v>1.048955728935988</v>
       </c>
       <c r="J12">
-        <v>1.058186408325289</v>
+        <v>1.03709547649585</v>
       </c>
       <c r="K12">
-        <v>1.062295788540238</v>
+        <v>1.043864712945446</v>
       </c>
       <c r="L12">
-        <v>1.06851515666548</v>
+        <v>1.041830065676358</v>
       </c>
       <c r="M12">
-        <v>1.074741887015865</v>
+        <v>1.047616986396312</v>
       </c>
       <c r="N12">
-        <v>1.059689154400788</v>
+        <v>1.038568271028989</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051703060392761</v>
+        <v>1.007879591047255</v>
       </c>
       <c r="D13">
-        <v>1.058808390562088</v>
+        <v>1.029487332541906</v>
       </c>
       <c r="E13">
-        <v>1.065057599012081</v>
+        <v>1.027447860883922</v>
       </c>
       <c r="F13">
-        <v>1.07130739733506</v>
+        <v>1.033344335097558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047285392091107</v>
+        <v>1.049044089509417</v>
       </c>
       <c r="J13">
-        <v>1.058219116374202</v>
+        <v>1.037262760085898</v>
       </c>
       <c r="K13">
-        <v>1.062327413423003</v>
+        <v>1.044028384029855</v>
       </c>
       <c r="L13">
-        <v>1.06855445491253</v>
+        <v>1.042025107338101</v>
       </c>
       <c r="M13">
-        <v>1.074782369070463</v>
+        <v>1.047817441577487</v>
       </c>
       <c r="N13">
-        <v>1.059721908898883</v>
+        <v>1.038735792180922</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051869997221598</v>
+        <v>1.008761371053608</v>
       </c>
       <c r="D14">
-        <v>1.058943319691655</v>
+        <v>1.03017236059393</v>
       </c>
       <c r="E14">
-        <v>1.065217559619245</v>
+        <v>1.028237784016665</v>
       </c>
       <c r="F14">
-        <v>1.071471040009904</v>
+        <v>1.034150904427296</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047330588980739</v>
+        <v>1.049332566139287</v>
       </c>
       <c r="J14">
-        <v>1.058326285601504</v>
+        <v>1.037809295119469</v>
       </c>
       <c r="K14">
-        <v>1.062431030415002</v>
+        <v>1.044563105627453</v>
       </c>
       <c r="L14">
-        <v>1.068683228569449</v>
+        <v>1.042662423613193</v>
       </c>
       <c r="M14">
-        <v>1.074915022834581</v>
+        <v>1.04847245941687</v>
       </c>
       <c r="N14">
-        <v>1.05982923031878</v>
+        <v>1.039283103356928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05197286736356</v>
+        <v>1.009302781689755</v>
       </c>
       <c r="D15">
-        <v>1.059026467043121</v>
+        <v>1.030593084104238</v>
       </c>
       <c r="E15">
-        <v>1.065316139859974</v>
+        <v>1.028722962289034</v>
       </c>
       <c r="F15">
-        <v>1.071571889779614</v>
+        <v>1.034646311435073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047358414816446</v>
+        <v>1.049509512023191</v>
       </c>
       <c r="J15">
-        <v>1.05839231522355</v>
+        <v>1.038144830580406</v>
       </c>
       <c r="K15">
-        <v>1.062494868967274</v>
+        <v>1.04489137988358</v>
       </c>
       <c r="L15">
-        <v>1.06876257792951</v>
+        <v>1.043053763281075</v>
       </c>
       <c r="M15">
-        <v>1.074996763830869</v>
+        <v>1.04887467804568</v>
       </c>
       <c r="N15">
-        <v>1.059895353710463</v>
+        <v>1.039619115316706</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052571842124351</v>
+        <v>1.012425846284759</v>
       </c>
       <c r="D16">
-        <v>1.059510619010404</v>
+        <v>1.033021718730609</v>
       </c>
       <c r="E16">
-        <v>1.065890273194184</v>
+        <v>1.031524157587348</v>
       </c>
       <c r="F16">
-        <v>1.072159246247782</v>
+        <v>1.03750662964644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047520045160215</v>
+        <v>1.050527470172258</v>
       </c>
       <c r="J16">
-        <v>1.05877662209756</v>
+        <v>1.04007975390712</v>
       </c>
       <c r="K16">
-        <v>1.062866385873991</v>
+        <v>1.046784293310012</v>
       </c>
       <c r="L16">
-        <v>1.069224541639397</v>
+        <v>1.045311564871241</v>
       </c>
       <c r="M16">
-        <v>1.075472662732886</v>
+        <v>1.051195386275694</v>
       </c>
       <c r="N16">
-        <v>1.060280206344315</v>
+        <v>1.041556786456483</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052947761531088</v>
+        <v>1.014360649820053</v>
       </c>
       <c r="D17">
-        <v>1.059814488463453</v>
+        <v>1.034527781513913</v>
       </c>
       <c r="E17">
-        <v>1.066250722346723</v>
+        <v>1.033261708729937</v>
       </c>
       <c r="F17">
-        <v>1.072528001778868</v>
+        <v>1.039280911666256</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047621142269153</v>
+        <v>1.051155681211875</v>
       </c>
       <c r="J17">
-        <v>1.059017674517692</v>
+        <v>1.041277939482432</v>
       </c>
       <c r="K17">
-        <v>1.063099382861695</v>
+        <v>1.047956336838266</v>
       </c>
       <c r="L17">
-        <v>1.069514420678104</v>
+        <v>1.046710634534132</v>
       </c>
       <c r="M17">
-        <v>1.075771295974728</v>
+        <v>1.052633558911948</v>
       </c>
       <c r="N17">
-        <v>1.060521601086533</v>
+        <v>1.042756673592746</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053167100151665</v>
+        <v>1.015480695598218</v>
       </c>
       <c r="D18">
-        <v>1.059991792557363</v>
+        <v>1.035400141339628</v>
       </c>
       <c r="E18">
-        <v>1.066461077710599</v>
+        <v>1.034268324707274</v>
       </c>
       <c r="F18">
-        <v>1.072743206373978</v>
+        <v>1.040308827228541</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047680006069424</v>
+        <v>1.051518458203637</v>
       </c>
       <c r="J18">
-        <v>1.059158271291841</v>
+        <v>1.041971353564748</v>
       </c>
       <c r="K18">
-        <v>1.063235269265035</v>
+        <v>1.048634573057668</v>
       </c>
       <c r="L18">
-        <v>1.069683538414769</v>
+        <v>1.047520645053845</v>
       </c>
       <c r="M18">
-        <v>1.075945524567797</v>
+        <v>1.053466251919812</v>
       </c>
       <c r="N18">
-        <v>1.060662397524227</v>
+        <v>1.043451072402595</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053241901000201</v>
+        <v>1.015861183294993</v>
       </c>
       <c r="D19">
-        <v>1.060052259178884</v>
+        <v>1.035696572795227</v>
       </c>
       <c r="E19">
-        <v>1.066532822321278</v>
+        <v>1.034610406602483</v>
       </c>
       <c r="F19">
-        <v>1.072816605168867</v>
+        <v>1.040658150835597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047700059375335</v>
+        <v>1.051641543846168</v>
       </c>
       <c r="J19">
-        <v>1.059206210278597</v>
+        <v>1.042206874783864</v>
       </c>
       <c r="K19">
-        <v>1.063281600138572</v>
+        <v>1.048864930472689</v>
       </c>
       <c r="L19">
-        <v>1.069741209299403</v>
+        <v>1.047795826667116</v>
       </c>
       <c r="M19">
-        <v>1.076004938914285</v>
+        <v>1.053749146640334</v>
       </c>
       <c r="N19">
-        <v>1.060710404589843</v>
+        <v>1.043686928088857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052907421566117</v>
+        <v>1.014153947267117</v>
       </c>
       <c r="D20">
-        <v>1.05978187970557</v>
+        <v>1.034366829687748</v>
       </c>
       <c r="E20">
-        <v>1.066212038024408</v>
+        <v>1.03307600037793</v>
       </c>
       <c r="F20">
-        <v>1.072488425819734</v>
+        <v>1.039091275428977</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047610306304511</v>
+        <v>1.051088659060717</v>
       </c>
       <c r="J20">
-        <v>1.058991812387391</v>
+        <v>1.041149953960133</v>
       </c>
       <c r="K20">
-        <v>1.06307438622047</v>
+        <v>1.047831148718981</v>
       </c>
       <c r="L20">
-        <v>1.069483315648687</v>
+        <v>1.046561156019765</v>
       </c>
       <c r="M20">
-        <v>1.075739251217949</v>
+        <v>1.052479898076475</v>
       </c>
       <c r="N20">
-        <v>1.060495702229039</v>
+        <v>1.042628506316326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051820835390582</v>
+        <v>1.008502102517465</v>
       </c>
       <c r="D21">
-        <v>1.058903583702635</v>
+        <v>1.029970917994143</v>
       </c>
       <c r="E21">
-        <v>1.065170450365362</v>
+        <v>1.028005488968773</v>
       </c>
       <c r="F21">
-        <v>1.071422846294315</v>
+        <v>1.033913713244374</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047317284092899</v>
+        <v>1.049247782831193</v>
       </c>
       <c r="J21">
-        <v>1.058294727116019</v>
+        <v>1.03764860554548</v>
       </c>
       <c r="K21">
-        <v>1.062400518478406</v>
+        <v>1.0444058911507</v>
       </c>
       <c r="L21">
-        <v>1.06864530633938</v>
+        <v>1.042475028232952</v>
       </c>
       <c r="M21">
-        <v>1.074875957806626</v>
+        <v>1.048279857125301</v>
       </c>
       <c r="N21">
-        <v>1.059797627016626</v>
+        <v>1.039122185585313</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051138303263864</v>
+        <v>1.004866936415996</v>
       </c>
       <c r="D22">
-        <v>1.05835193337984</v>
+        <v>1.027148704351896</v>
       </c>
       <c r="E22">
-        <v>1.064516576134291</v>
+        <v>1.024751580054152</v>
       </c>
       <c r="F22">
-        <v>1.070753926061116</v>
+        <v>1.030591302997868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04713211201168</v>
+        <v>1.048055867380723</v>
       </c>
       <c r="J22">
-        <v>1.057856402954333</v>
+        <v>1.035394991024616</v>
       </c>
       <c r="K22">
-        <v>1.061976686379125</v>
+        <v>1.042200866282448</v>
       </c>
       <c r="L22">
-        <v>1.068118750199124</v>
+        <v>1.039848149208675</v>
       </c>
       <c r="M22">
-        <v>1.074333547039346</v>
+        <v>1.045580160631996</v>
       </c>
       <c r="N22">
-        <v>1.059358680384354</v>
+        <v>1.036865370673337</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051500064750568</v>
+        <v>1.006802002605117</v>
       </c>
       <c r="D23">
-        <v>1.058644319258562</v>
+        <v>1.028650511791442</v>
       </c>
       <c r="E23">
-        <v>1.064863110751138</v>
+        <v>1.026482984930472</v>
       </c>
       <c r="F23">
-        <v>1.071108433174037</v>
+        <v>1.032359138386849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047230363921155</v>
+        <v>1.048691074678182</v>
       </c>
       <c r="J23">
-        <v>1.058088770275954</v>
+        <v>1.036594768061792</v>
       </c>
       <c r="K23">
-        <v>1.062201381188551</v>
+        <v>1.043374808278505</v>
       </c>
       <c r="L23">
-        <v>1.068397855590148</v>
+        <v>1.04124635100999</v>
       </c>
       <c r="M23">
-        <v>1.07462105322351</v>
+        <v>1.047017080906266</v>
       </c>
       <c r="N23">
-        <v>1.059591377694224</v>
+        <v>1.038066851531521</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052925649239964</v>
+        <v>1.014247373443958</v>
       </c>
       <c r="D24">
-        <v>1.059796614007631</v>
+        <v>1.034439575709331</v>
       </c>
       <c r="E24">
-        <v>1.066229517460216</v>
+        <v>1.033159935171796</v>
       </c>
       <c r="F24">
-        <v>1.072506308134678</v>
+        <v>1.039176985450439</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047615202933227</v>
+        <v>1.051118954742006</v>
       </c>
       <c r="J24">
-        <v>1.059003498386456</v>
+        <v>1.041207801973739</v>
       </c>
       <c r="K24">
-        <v>1.063085681178663</v>
+        <v>1.047887732490386</v>
       </c>
       <c r="L24">
-        <v>1.069497370560835</v>
+        <v>1.046628717566747</v>
       </c>
       <c r="M24">
-        <v>1.075753730737996</v>
+        <v>1.052549349821875</v>
       </c>
       <c r="N24">
-        <v>1.060507404823564</v>
+        <v>1.042686436480746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054582750007111</v>
+        <v>1.022556376490831</v>
       </c>
       <c r="D25">
-        <v>1.061136222481465</v>
+        <v>1.040919588620165</v>
       </c>
       <c r="E25">
-        <v>1.067819524441912</v>
+        <v>1.040640473566956</v>
       </c>
       <c r="F25">
-        <v>1.074132999298033</v>
+        <v>1.04681615718473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048057688680525</v>
+        <v>1.053793975701071</v>
       </c>
       <c r="J25">
-        <v>1.060064789045296</v>
+        <v>1.046347764373923</v>
       </c>
       <c r="K25">
-        <v>1.064111199669926</v>
+        <v>1.052914234727369</v>
       </c>
       <c r="L25">
-        <v>1.070774712515978</v>
+        <v>1.052639034185184</v>
       </c>
       <c r="M25">
-        <v>1.077069739297706</v>
+        <v>1.05872872073488</v>
       </c>
       <c r="N25">
-        <v>1.061570202636871</v>
+        <v>1.047833698217099</v>
       </c>
     </row>
   </sheetData>
